--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1098.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1098.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.277988972735394</v>
+        <v>1.177215099334717</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.419754266738892</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.674344279301978</v>
+        <v>2.33219575881958</v>
       </c>
       <c r="E1">
-        <v>1.079083503246191</v>
+        <v>1.201651096343994</v>
       </c>
     </row>
   </sheetData>
